--- a/result/result-edited - PQC.xlsx
+++ b/result/result-edited - PQC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="301">
   <si>
     <t>检验名称</t>
   </si>
@@ -390,7 +390,7 @@
     <t>抽样方案11</t>
   </si>
   <si>
-    <t>远端粘胶检验</t>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）远端粘胶检验</t>
   </si>
   <si>
     <t>AKA-PQC-001</t>
@@ -420,59 +420,24 @@
     <t>1</t>
   </si>
   <si>
-    <t>组装牢固</t>
-  </si>
-  <si>
-    <t>手动扭动鲁尔接头和指引针尖端</t>
-  </si>
-  <si>
-    <t>指引针尖端牢固，无松动，无缝隙
-鲁尔接头牢固，无松动，无缝隙
-传感器安装牢固，无松动</t>
-  </si>
-  <si>
-    <t>——</t>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>1）目视粘胶位置表面
+2）用手轻轻掰引流管和硅胶管和堵头，查看硅胶管和堵头连接处。</t>
+  </si>
+  <si>
+    <t>1）粘胶位置应无毛刺，表面应光滑平整
+2）引流管和硅胶管和堵头连接处无缝隙</t>
   </si>
   <si>
     <t>全检</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>外观</t>
-  </si>
-  <si>
-    <t>目视指引针外观</t>
-  </si>
-  <si>
-    <t>传感器线束位置正确，无挤压
-外观无胶水痕迹</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用游标卡尺测量下图中L1尺寸
-</t>
-  </si>
-  <si>
-    <t>L1：108.28±2mm</t>
-  </si>
-  <si>
-    <t>游标卡尺</t>
-  </si>
-  <si>
-    <t>GB/T2828.1，特殊检验水平S-4，AQL=4.0</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>内包装首检</t>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）内包装首检</t>
   </si>
   <si>
     <t>AKA-PQC-002</t>
@@ -494,7 +459,10 @@
     <t>万能试验机</t>
   </si>
   <si>
-    <t>每班检验/3pcs</t>
+    <t>每班检验/3PCS</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>染料渗漏性能</t>
@@ -510,10 +478,10 @@
 塑料滴管</t>
   </si>
   <si>
-    <t>每班检验/1pcs</t>
-  </si>
-  <si>
-    <t>内包装检验</t>
+    <t>每班检验/1PCS</t>
+  </si>
+  <si>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）内包装检验</t>
   </si>
   <si>
     <t>AKA-PQC-003</t>
@@ -546,13 +514,16 @@
     <t>目视</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>初始污染菌</t>
   </si>
   <si>
     <t>参照STM-MM-007</t>
   </si>
   <si>
-    <t>≤100 CFU/pcs</t>
+    <t>≤100 CFU/PCS</t>
   </si>
   <si>
     <t>高压蒸汽灭菌锅、生化培养箱等。</t>
@@ -561,7 +532,7 @@
     <t>3PCS/批</t>
   </si>
   <si>
-    <t>标签打印首检</t>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）标签打印首检</t>
   </si>
   <si>
     <t>AKA-PQC-004</t>
@@ -615,7 +586,7 @@
     <t>每批次产品标签应留样一张</t>
   </si>
   <si>
-    <t>标签检验</t>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）标签检验</t>
   </si>
   <si>
     <t>AKA-PQC-005</t>
@@ -638,7 +609,7 @@
 所有标签平整无褶皱，无翘边</t>
   </si>
   <si>
-    <t>外包装检验</t>
+    <t>颅脑外亲水涂层引流导管（HC-Y060-240）外包装检验</t>
   </si>
   <si>
     <t>AKA-PQC-006</t>
@@ -673,7 +644,7 @@
 外包装标签粘贴位置如附图，应端正，无偏斜，易折线位置正确；</t>
   </si>
   <si>
-    <t>裁切检验</t>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）裁切检验</t>
   </si>
   <si>
     <t>AKA-PQC-007</t>
@@ -682,6 +653,43 @@
     <t>AKA-QP-008/A</t>
   </si>
   <si>
+    <t>组装牢固</t>
+  </si>
+  <si>
+    <t>手动扭动鲁尔接头和指引针尖端</t>
+  </si>
+  <si>
+    <t>指引针尖端牢固，无松动，无缝隙
+鲁尔接头牢固，无松动，无缝隙
+传感器安装牢固，无松动</t>
+  </si>
+  <si>
+    <t>目视指引针外观</t>
+  </si>
+  <si>
+    <t>传感器线束位置正确，无挤压
+外观无胶水痕迹</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用游标卡尺测量下图中L1尺寸
+</t>
+  </si>
+  <si>
+    <t>L1：108.28±2mm</t>
+  </si>
+  <si>
+    <t>游标卡尺</t>
+  </si>
+  <si>
+    <t>GB/T2828.1，特殊检验水平S-4，AQL=4.0</t>
+  </si>
+  <si>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）内包装首检</t>
+  </si>
+  <si>
     <t>AKA-PQC-008</t>
   </si>
   <si>
@@ -691,12 +699,18 @@
     <t>≥3N/(25.4mm±%5)</t>
   </si>
   <si>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）内包装检验</t>
+  </si>
+  <si>
     <t>AKA-PQC-009</t>
   </si>
   <si>
     <t>配准头部标记物（3个）、成品配准鼻夹标记物（1个）、成品圆形头贴标记物（3个）分别固定在吸塑盒中，无松动，脱出，位置正确。如附图。</t>
   </si>
   <si>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）标签打印首检</t>
+  </si>
+  <si>
     <t>AKA-PQC-010</t>
   </si>
   <si>
@@ -706,7 +720,13 @@
     <t>在充足的自然光或台灯下使用正常视力或矫正视力在距产品约30cm处目测产品外表面</t>
   </si>
   <si>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）标签检验</t>
+  </si>
+  <si>
     <t>AKA-PQC-011</t>
+  </si>
+  <si>
+    <t>颅脑外亲水涂层引流导管（HC-X045或HC-P045）外包装检验</t>
   </si>
   <si>
     <t>AKA-PQC-012</t>
@@ -745,6 +765,9 @@
     <t>增加尺寸检验。</t>
   </si>
   <si>
+    <t>——</t>
+  </si>
+  <si>
     <t xml:space="preserve">配准工具耗材组装检验
 </t>
   </si>
@@ -912,6 +935,12 @@
     <t>封口强度检测方法中增加“夹具尾部握持方法为:180度有支持方式（参考YY/T 0681.2）。”</t>
   </si>
   <si>
+    <t>每班检验/3pcs</t>
+  </si>
+  <si>
+    <t>每班检验/1pcs</t>
+  </si>
+  <si>
     <t xml:space="preserve">内包装检验
 </t>
   </si>
@@ -925,6 +954,9 @@
     <t>更新生产过程作业指导书版本</t>
   </si>
   <si>
+    <t>≤100 CFU/pcs</t>
+  </si>
+  <si>
     <t xml:space="preserve">标签打印首检
 </t>
   </si>
@@ -1025,6 +1057,27 @@
   <si>
     <t>如左图中红框处空白标签纸应粘贴牢固无翘边，无气泡等。
 粘贴位置应完全覆盖下面的文字。</t>
+  </si>
+  <si>
+    <t>远端粘胶检验</t>
+  </si>
+  <si>
+    <t>内包装首检</t>
+  </si>
+  <si>
+    <t>内包装检验</t>
+  </si>
+  <si>
+    <t>标签打印首检</t>
+  </si>
+  <si>
+    <t>标签检验</t>
+  </si>
+  <si>
+    <t>外包装检验</t>
+  </si>
+  <si>
+    <t>裁切检验</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1732,6 +1785,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2082,326 +2174,352 @@
   <dimension ref="A1:CK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.625" style="1" customWidth="1"/>
-    <col min="26" max="78" width="9" style="1"/>
-    <col min="79" max="79" width="13.75" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="51.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9" style="14"/>
+    <col min="4" max="4" width="18.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="9" style="14"/>
+    <col min="15" max="15" width="12" style="14" customWidth="1"/>
+    <col min="16" max="23" width="9" style="14" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8" style="14" customWidth="1"/>
+    <col min="25" max="25" width="12.625" style="14" customWidth="1"/>
+    <col min="26" max="26" width="40.25" style="15" customWidth="1"/>
+    <col min="27" max="27" width="37.875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="24.375" style="14" customWidth="1"/>
+    <col min="29" max="29" width="14.625" style="14" customWidth="1"/>
+    <col min="30" max="30" width="9" style="14"/>
+    <col min="31" max="31" width="12.375" style="14" customWidth="1"/>
+    <col min="32" max="32" width="51.25" style="14" customWidth="1"/>
+    <col min="33" max="33" width="39.625" style="14" customWidth="1"/>
+    <col min="34" max="34" width="16.5" style="14" customWidth="1"/>
+    <col min="35" max="35" width="14.5" style="14" customWidth="1"/>
+    <col min="36" max="36" width="9" style="14"/>
+    <col min="37" max="37" width="13.625" style="14" customWidth="1"/>
+    <col min="38" max="38" width="30.875" style="14" customWidth="1"/>
+    <col min="39" max="39" width="30.625" style="14" customWidth="1"/>
+    <col min="40" max="40" width="20.875" style="14" customWidth="1"/>
+    <col min="41" max="41" width="34.25" style="14" customWidth="1"/>
+    <col min="42" max="42" width="12.25" style="14" customWidth="1"/>
+    <col min="43" max="43" width="19.125" style="14" customWidth="1"/>
+    <col min="44" max="44" width="15.625" style="14" customWidth="1"/>
+    <col min="45" max="45" width="28.25" style="14" customWidth="1"/>
+    <col min="46" max="46" width="25.875" style="14" customWidth="1"/>
+    <col min="47" max="47" width="11.25" style="14" customWidth="1"/>
+    <col min="48" max="78" width="9" style="14"/>
+    <col min="79" max="79" width="13.75" style="14" customWidth="1"/>
+    <col min="80" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:89">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="13" customFormat="1" ht="14.25" spans="1:89">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BV1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BW1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BX1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BY1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BZ1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CA1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CB1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CC1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CD1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CE1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CG1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CH1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CI1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CJ1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CK1" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:59">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="40.5" spans="1:59">
+      <c r="A2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -2413,158 +2531,116 @@
       <c r="K2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
+      <c r="O2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:59">
+      <c r="A3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:59">
-      <c r="A3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2576,158 +2652,158 @@
       <c r="K3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
+      <c r="O3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG3" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:59">
+      <c r="A4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:59">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2739,158 +2815,158 @@
       <c r="K4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
+      <c r="O4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AM4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AN4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AO4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AP4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:59">
+      <c r="A5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:59">
-      <c r="A5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2902,158 +2978,158 @@
       <c r="K5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
+      <c r="O5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Y5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AO5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP5" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AQ5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AR5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AT5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG5" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:59">
+      <c r="A6" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:59">
-      <c r="A6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -3065,158 +3141,158 @@
       <c r="K6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1" t="s">
+      <c r="O6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="Y6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>114</v>
+      <c r="AA6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG6" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:59">
-      <c r="A7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
+    <row r="7" ht="54" spans="1:59">
+      <c r="A7" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -3228,158 +3304,158 @@
       <c r="K7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="s">
+      <c r="O7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG7" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:59">
+      <c r="A8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:59">
-      <c r="A8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -3391,150 +3467,150 @@
       <c r="K8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" s="1" t="s">
+      <c r="O8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AF8" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>114</v>
+      <c r="AJ8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG8" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:59">
-      <c r="A9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>178</v>
+    <row r="9" ht="54" spans="1:59">
+      <c r="A9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -3546,158 +3622,158 @@
       <c r="K9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
+      <c r="O9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="Y9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>114</v>
+      <c r="AG9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG9" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:59">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" ht="81" spans="1:59">
+      <c r="A10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -3709,158 +3785,158 @@
       <c r="K10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1" t="s">
+      <c r="O10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL10" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AM10" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AN10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG10" s="1" t="s">
-        <v>114</v>
+      <c r="AP10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG10" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:59">
-      <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>183</v>
+    <row r="11" ht="27" spans="1:59">
+      <c r="A11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -3872,158 +3948,158 @@
       <c r="K11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
+      <c r="O11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA11" s="1" t="s">
+      <c r="Y11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK11" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP11" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AQ11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AR11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG11" s="1" t="s">
-        <v>114</v>
+      <c r="AT11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG11" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:59">
-      <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>186</v>
+    <row r="12" ht="54" spans="1:59">
+      <c r="A12" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -4035,158 +4111,158 @@
       <c r="K12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1" t="s">
+      <c r="O12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB12" s="1" t="s">
+      <c r="Y12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="AC12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>114</v>
+      <c r="AA12" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG12" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:59">
-      <c r="A13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>187</v>
+    <row r="13" ht="54" spans="1:59">
+      <c r="A13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -4198,146 +4274,146 @@
       <c r="K13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="12">
-        <v>45616</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="23">
+        <v>45622</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1" t="s">
+      <c r="O13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB13" s="1" t="s">
+      <c r="Y13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AD13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN13" s="1" t="s">
+      <c r="AJ13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK13" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AO13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG13" s="1" t="s">
-        <v>114</v>
+      <c r="AP13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG13" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="9:9">
-      <c r="I15" s="11"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="9:9">
-      <c r="I16" s="11"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="11"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="11"/>
+      <c r="I18" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4350,7 +4426,7 @@
   <sheetPr/>
   <dimension ref="A1:CK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4365,7 +4441,11 @@
     <col min="9" max="9" width="35" style="2" customWidth="1"/>
     <col min="10" max="10" width="32.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="15.125" style="1" customWidth="1"/>
+    <col min="29" max="39" width="9" style="1"/>
+    <col min="40" max="40" width="19.125" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:89">
@@ -4639,19 +4719,19 @@
     </row>
     <row r="2" spans="1:59">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>94</v>
@@ -4675,7 +4755,7 @@
         <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>97</v>
@@ -4684,153 +4764,153 @@
         <v>95</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:59">
       <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
@@ -4854,7 +4934,7 @@
         <v>96</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>97</v>
@@ -4863,153 +4943,153 @@
         <v>95</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:59">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>94</v>
@@ -5033,7 +5113,7 @@
         <v>96</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>97</v>
@@ -5042,153 +5122,153 @@
         <v>95</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>94</v>
@@ -5212,7 +5292,7 @@
         <v>96</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>97</v>
@@ -5221,153 +5301,153 @@
         <v>95</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:59">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>94</v>
@@ -5391,7 +5471,7 @@
         <v>96</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>97</v>
@@ -5400,153 +5480,153 @@
         <v>95</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD6" s="1">
         <v>2</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ6" s="1">
         <v>3</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP6" s="1">
         <v>4</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV6" s="1">
         <v>5</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BB6" s="1">
         <v>6</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="BD6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BE6" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="BF6" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:59">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>94</v>
@@ -5570,7 +5650,7 @@
         <v>96</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>97</v>
@@ -5579,153 +5659,153 @@
         <v>95</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:59">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>94</v>
@@ -5749,7 +5829,7 @@
         <v>96</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>97</v>
@@ -5758,153 +5838,153 @@
         <v>95</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AP8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:59">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>94</v>
@@ -5928,7 +6008,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>97</v>
@@ -5937,95 +6017,95 @@
         <v>95</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AT9" s="1" t="s">
         <v>91</v>
       </c>
@@ -6033,57 +6113,57 @@
         <v>91</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>94</v>
@@ -6107,7 +6187,7 @@
         <v>96</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>97</v>
@@ -6116,153 +6196,153 @@
         <v>95</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:59">
       <c r="A11" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>94</v>
@@ -6286,7 +6366,7 @@
         <v>96</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>97</v>
@@ -6295,153 +6375,153 @@
         <v>95</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AB11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AD11" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ11" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AN11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AP11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:59">
       <c r="A12" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>94</v>
@@ -6465,7 +6545,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>97</v>
@@ -6474,153 +6554,153 @@
         <v>95</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:59">
       <c r="A13" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>94</v>
@@ -6644,7 +6724,7 @@
         <v>96</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>97</v>
@@ -6653,153 +6733,153 @@
         <v>95</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AM13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AP13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:59">
       <c r="A14" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>94</v>
@@ -6823,7 +6903,7 @@
         <v>96</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>97</v>
@@ -6832,95 +6912,95 @@
         <v>95</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AA14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AR14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AT14" s="1" t="s">
         <v>91</v>
       </c>
@@ -6928,57 +7008,57 @@
         <v>91</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:59">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>94</v>
@@ -7002,7 +7082,7 @@
         <v>96</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>97</v>
@@ -7011,153 +7091,153 @@
         <v>95</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:59">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>94</v>
@@ -7181,7 +7261,7 @@
         <v>96</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>97</v>
@@ -7190,153 +7270,153 @@
         <v>95</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>97</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AB16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AD16" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ16" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AM16" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO16" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AP16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:59">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>94</v>
@@ -7360,7 +7440,7 @@
         <v>96</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>97</v>
@@ -7369,136 +7449,136 @@
         <v>95</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="9:9">
@@ -7506,7 +7586,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>90</v>
@@ -7554,123 +7634,123 @@
         <v>98</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ20" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>93</v>
@@ -7709,123 +7789,123 @@
         <v>98</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>93</v>
@@ -7864,123 +7944,123 @@
         <v>98</v>
       </c>
       <c r="Y22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AM22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AO22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AP22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>93</v>
@@ -8019,68 +8099,68 @@
         <v>98</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AO23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP23" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AT23" s="1" t="s">
         <v>91</v>
       </c>
@@ -8088,54 +8168,54 @@
         <v>91</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>93</v>
@@ -8174,123 +8254,123 @@
         <v>98</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AI24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>93</v>
@@ -8329,123 +8409,123 @@
         <v>98</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AB25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AD25" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AI25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ25" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AN25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO25" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AP25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>93</v>
@@ -8484,123 +8564,123 @@
         <v>98</v>
       </c>
       <c r="Y26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ26" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>93</v>
@@ -8639,123 +8719,123 @@
         <v>98</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>93</v>
@@ -8794,123 +8874,123 @@
         <v>98</v>
       </c>
       <c r="Y28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AM28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AC28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="AP28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>93</v>
@@ -8949,68 +9029,68 @@
         <v>98</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AA29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AR29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="AT29" s="1" t="s">
         <v>91</v>
       </c>
@@ -9018,54 +9098,54 @@
         <v>91</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>93</v>
@@ -9104,123 +9184,123 @@
         <v>98</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="14.25" spans="1:59">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>93</v>
@@ -9259,109 +9339,109 @@
         <v>98</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AB31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AD31" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AH31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AI31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AJ31" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AN31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AP31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BF31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
